--- a/natmiOut/OldD2/LR-pairs_lrc2p/F8-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/F8-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.07410492005487</v>
+        <v>5.096137000000001</v>
       </c>
       <c r="H2">
-        <v>5.07410492005487</v>
+        <v>10.192274</v>
       </c>
       <c r="I2">
-        <v>0.5805737254136637</v>
+        <v>0.5636530534423333</v>
       </c>
       <c r="J2">
-        <v>0.5805737254136637</v>
+        <v>0.4744570273450183</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>9.282039368585467</v>
+        <v>10.289335025302</v>
       </c>
       <c r="R2">
-        <v>9.282039368585467</v>
+        <v>41.157340101208</v>
       </c>
       <c r="S2">
-        <v>0.002157694463234395</v>
+        <v>0.002240720041608477</v>
       </c>
       <c r="T2">
-        <v>0.002157694463234395</v>
+        <v>0.001284382471835297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.07410492005487</v>
+        <v>5.096137000000001</v>
       </c>
       <c r="H3">
-        <v>5.07410492005487</v>
+        <v>10.192274</v>
       </c>
       <c r="I3">
-        <v>0.5805737254136637</v>
+        <v>0.5636530534423333</v>
       </c>
       <c r="J3">
-        <v>0.5805737254136637</v>
+        <v>0.4744570273450183</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>667.3035085277497</v>
+        <v>711.9039239232167</v>
       </c>
       <c r="R3">
-        <v>667.3035085277497</v>
+        <v>4271.4235435393</v>
       </c>
       <c r="S3">
-        <v>0.155120769097388</v>
+        <v>0.1550321168580715</v>
       </c>
       <c r="T3">
-        <v>0.155120769097388</v>
+        <v>0.1332967950702301</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.07410492005487</v>
+        <v>5.096137000000001</v>
       </c>
       <c r="H4">
-        <v>5.07410492005487</v>
+        <v>10.192274</v>
       </c>
       <c r="I4">
-        <v>0.5805737254136637</v>
+        <v>0.5636530534423333</v>
       </c>
       <c r="J4">
-        <v>0.5805737254136637</v>
+        <v>0.4744570273450183</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>934.7848889732363</v>
+        <v>949.6898649002859</v>
       </c>
       <c r="R4">
-        <v>934.7848889732363</v>
+        <v>5698.139189401715</v>
       </c>
       <c r="S4">
-        <v>0.2172992484904864</v>
+        <v>0.2068150282172447</v>
       </c>
       <c r="T4">
-        <v>0.2172992484904864</v>
+        <v>0.1778198027119479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.07410492005487</v>
+        <v>5.096137000000001</v>
       </c>
       <c r="H5">
-        <v>5.07410492005487</v>
+        <v>10.192274</v>
       </c>
       <c r="I5">
-        <v>0.5805737254136637</v>
+        <v>0.5636530534423333</v>
       </c>
       <c r="J5">
-        <v>0.5805737254136637</v>
+        <v>0.4744570273450183</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>708.9757043651496</v>
+        <v>731.8317697149754</v>
       </c>
       <c r="R5">
-        <v>708.9757043651496</v>
+        <v>4390.990618289853</v>
       </c>
       <c r="S5">
-        <v>0.1648078499918617</v>
+        <v>0.1593718262116764</v>
       </c>
       <c r="T5">
-        <v>0.1648078499918617</v>
+        <v>0.1370280822389489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.07410492005487</v>
+        <v>5.096137000000001</v>
       </c>
       <c r="H6">
-        <v>5.07410492005487</v>
+        <v>10.192274</v>
       </c>
       <c r="I6">
-        <v>0.5805737254136637</v>
+        <v>0.5636530534423333</v>
       </c>
       <c r="J6">
-        <v>0.5805737254136637</v>
+        <v>0.4744570273450183</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>25.16115490488194</v>
+        <v>31.86979009766734</v>
       </c>
       <c r="R6">
-        <v>25.16115490488194</v>
+        <v>191.2187405860041</v>
       </c>
       <c r="S6">
-        <v>0.005848939276274608</v>
+        <v>0.006940319973846185</v>
       </c>
       <c r="T6">
-        <v>0.005848939276274608</v>
+        <v>0.0059672952161424</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.07410492005487</v>
+        <v>5.096137000000001</v>
       </c>
       <c r="H7">
-        <v>5.07410492005487</v>
+        <v>10.192274</v>
       </c>
       <c r="I7">
-        <v>0.5805737254136637</v>
+        <v>0.5636530534423333</v>
       </c>
       <c r="J7">
-        <v>0.5805737254136637</v>
+        <v>0.4744570273450183</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>152.0234096573404</v>
+        <v>152.6972066274565</v>
       </c>
       <c r="R7">
-        <v>152.0234096573404</v>
+        <v>610.7888265098261</v>
       </c>
       <c r="S7">
-        <v>0.03533922409441861</v>
+        <v>0.03325304213988602</v>
       </c>
       <c r="T7">
-        <v>0.03533922409441861</v>
+        <v>0.01906066963591374</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.347283572867315</v>
+        <v>0.351338</v>
       </c>
       <c r="H8">
-        <v>0.347283572867315</v>
+        <v>1.054014</v>
       </c>
       <c r="I8">
-        <v>0.03973581958813029</v>
+        <v>0.03885938240873871</v>
       </c>
       <c r="J8">
-        <v>0.03973581958813029</v>
+        <v>0.04906504173848075</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>0.635284418869009</v>
+        <v>0.7093675835479999</v>
       </c>
       <c r="R8">
-        <v>0.635284418869009</v>
+        <v>4.256205501288</v>
       </c>
       <c r="S8">
-        <v>0.0001476776405206775</v>
+        <v>0.0001544797751666878</v>
       </c>
       <c r="T8">
-        <v>0.0001476776405206775</v>
+        <v>0.000132821891039135</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.347283572867315</v>
+        <v>0.351338</v>
       </c>
       <c r="H9">
-        <v>0.347283572867315</v>
+        <v>1.054014</v>
       </c>
       <c r="I9">
-        <v>0.03973581958813029</v>
+        <v>0.03885938240873871</v>
       </c>
       <c r="J9">
-        <v>0.03973581958813029</v>
+        <v>0.04906504173848075</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>45.6718081867936</v>
+        <v>49.08009749803332</v>
       </c>
       <c r="R9">
-        <v>45.6718081867936</v>
+        <v>441.7208774823</v>
       </c>
       <c r="S9">
-        <v>0.01061682715805651</v>
+        <v>0.01068822794063055</v>
       </c>
       <c r="T9">
-        <v>0.01061682715805651</v>
+        <v>0.01378462629234198</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.347283572867315</v>
+        <v>0.351338</v>
       </c>
       <c r="H10">
-        <v>0.347283572867315</v>
+        <v>1.054014</v>
       </c>
       <c r="I10">
-        <v>0.03973581958813029</v>
+        <v>0.03885938240873871</v>
       </c>
       <c r="J10">
-        <v>0.03973581958813029</v>
+        <v>0.04906504173848075</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>63.97885759553655</v>
+        <v>65.47354157753934</v>
       </c>
       <c r="R10">
-        <v>63.97885759553655</v>
+        <v>589.261874197854</v>
       </c>
       <c r="S10">
-        <v>0.01487246727967591</v>
+        <v>0.01425824666483462</v>
       </c>
       <c r="T10">
-        <v>0.01487246727967591</v>
+        <v>0.01838888569279349</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.347283572867315</v>
+        <v>0.351338</v>
       </c>
       <c r="H11">
-        <v>0.347283572867315</v>
+        <v>1.054014</v>
       </c>
       <c r="I11">
-        <v>0.03973581958813029</v>
+        <v>0.03885938240873871</v>
       </c>
       <c r="J11">
-        <v>0.03973581958813029</v>
+        <v>0.04906504173848075</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>48.52395044393128</v>
+        <v>50.45396352337466</v>
       </c>
       <c r="R11">
-        <v>48.52395044393128</v>
+        <v>454.085671710372</v>
       </c>
       <c r="S11">
-        <v>0.01127983356346035</v>
+        <v>0.0109874162875837</v>
       </c>
       <c r="T11">
-        <v>0.01127983356346035</v>
+        <v>0.0141704900273485</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.347283572867315</v>
+        <v>0.351338</v>
       </c>
       <c r="H12">
-        <v>0.347283572867315</v>
+        <v>1.054014</v>
       </c>
       <c r="I12">
-        <v>0.03973581958813029</v>
+        <v>0.03885938240873871</v>
       </c>
       <c r="J12">
-        <v>0.03973581958813029</v>
+        <v>0.04906504173848075</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>1.722088114161596</v>
+        <v>2.197167837782667</v>
       </c>
       <c r="R12">
-        <v>1.722088114161596</v>
+        <v>19.77451054004401</v>
       </c>
       <c r="S12">
-        <v>0.0004003150430178034</v>
+        <v>0.0004784797070744312</v>
       </c>
       <c r="T12">
-        <v>0.0004003150430178034</v>
+        <v>0.0006170961161314065</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.347283572867315</v>
+        <v>0.351338</v>
       </c>
       <c r="H13">
-        <v>0.347283572867315</v>
+        <v>1.054014</v>
       </c>
       <c r="I13">
-        <v>0.03973581958813029</v>
+        <v>0.03885938240873871</v>
       </c>
       <c r="J13">
-        <v>0.03973581958813029</v>
+        <v>0.04906504173848075</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N13">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O13">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P13">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q13">
-        <v>10.40483665534881</v>
+        <v>10.527254503181</v>
       </c>
       <c r="R13">
-        <v>10.40483665534881</v>
+        <v>63.163527019086</v>
       </c>
       <c r="S13">
-        <v>0.002418698903399042</v>
+        <v>0.002292532033448723</v>
       </c>
       <c r="T13">
-        <v>0.002418698903399042</v>
+        <v>0.001971121718826239</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.102262841073909</v>
+        <v>0.1440186666666667</v>
       </c>
       <c r="H14">
-        <v>0.102262841073909</v>
+        <v>0.432056</v>
       </c>
       <c r="I14">
-        <v>0.01170080626023451</v>
+        <v>0.01592903825375186</v>
       </c>
       <c r="J14">
-        <v>0.01170080626023451</v>
+        <v>0.02011248965702641</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N14">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O14">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P14">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q14">
-        <v>0.1870689967485256</v>
+        <v>0.2907803128586666</v>
       </c>
       <c r="R14">
-        <v>0.1870689967485256</v>
+        <v>1.744681877152</v>
       </c>
       <c r="S14">
-        <v>4.348588952264042E-05</v>
+        <v>6.332355522736745E-05</v>
       </c>
       <c r="T14">
-        <v>4.348588952264042E-05</v>
+        <v>5.444566671297013E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.102262841073909</v>
+        <v>0.1440186666666667</v>
       </c>
       <c r="H15">
-        <v>0.102262841073909</v>
+        <v>0.432056</v>
       </c>
       <c r="I15">
-        <v>0.01170080626023451</v>
+        <v>0.01592903825375186</v>
       </c>
       <c r="J15">
-        <v>0.01170080626023451</v>
+        <v>0.02011248965702641</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N15">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P15">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q15">
-        <v>13.44874686586048</v>
+        <v>20.11866123657777</v>
       </c>
       <c r="R15">
-        <v>13.44874686586048</v>
+        <v>181.0679511292</v>
       </c>
       <c r="S15">
-        <v>0.003126283513526004</v>
+        <v>0.00438126344727591</v>
       </c>
       <c r="T15">
-        <v>0.003126283513526004</v>
+        <v>0.00565052314045554</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.102262841073909</v>
+        <v>0.1440186666666667</v>
       </c>
       <c r="H16">
-        <v>0.102262841073909</v>
+        <v>0.432056</v>
       </c>
       <c r="I16">
-        <v>0.01170080626023451</v>
+        <v>0.01592903825375186</v>
       </c>
       <c r="J16">
-        <v>0.01170080626023451</v>
+        <v>0.02011248965702641</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N16">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O16">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P16">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q16">
-        <v>18.8395313154715</v>
+        <v>26.83857755193511</v>
       </c>
       <c r="R16">
-        <v>18.8395313154715</v>
+        <v>241.547197967416</v>
       </c>
       <c r="S16">
-        <v>0.004379420383294355</v>
+        <v>0.005844667168578204</v>
       </c>
       <c r="T16">
-        <v>0.004379420383294355</v>
+        <v>0.007537877482543479</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.102262841073909</v>
+        <v>0.1440186666666667</v>
       </c>
       <c r="H17">
-        <v>0.102262841073909</v>
+        <v>0.432056</v>
       </c>
       <c r="I17">
-        <v>0.01170080626023451</v>
+        <v>0.01592903825375186</v>
       </c>
       <c r="J17">
-        <v>0.01170080626023451</v>
+        <v>0.02011248965702641</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N17">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O17">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P17">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q17">
-        <v>14.28860280247653</v>
+        <v>20.68182933438755</v>
       </c>
       <c r="R17">
-        <v>14.28860280247653</v>
+        <v>186.136464009488</v>
       </c>
       <c r="S17">
-        <v>0.003321515663745507</v>
+        <v>0.004503905196276581</v>
       </c>
       <c r="T17">
-        <v>0.003321515663745507</v>
+        <v>0.005808694418912923</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.102262841073909</v>
+        <v>0.1440186666666667</v>
       </c>
       <c r="H18">
-        <v>0.102262841073909</v>
+        <v>0.432056</v>
       </c>
       <c r="I18">
-        <v>0.01170080626023451</v>
+        <v>0.01592903825375186</v>
       </c>
       <c r="J18">
-        <v>0.01170080626023451</v>
+        <v>0.02011248965702641</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N18">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O18">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P18">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q18">
-        <v>0.5070945961531523</v>
+        <v>0.9006517440195557</v>
       </c>
       <c r="R18">
-        <v>0.5070945961531523</v>
+        <v>8.105865696176002</v>
       </c>
       <c r="S18">
-        <v>0.0001178787504563754</v>
+        <v>0.0001961359415716968</v>
       </c>
       <c r="T18">
-        <v>0.0001178787504563754</v>
+        <v>0.0002529568673198563</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.102262841073909</v>
+        <v>0.1440186666666667</v>
       </c>
       <c r="H19">
-        <v>0.102262841073909</v>
+        <v>0.432056</v>
       </c>
       <c r="I19">
-        <v>0.01170080626023451</v>
+        <v>0.01592903825375186</v>
       </c>
       <c r="J19">
-        <v>0.01170080626023451</v>
+        <v>0.02011248965702641</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N19">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O19">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P19">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q19">
-        <v>3.063859740041451</v>
+        <v>4.315278043390666</v>
       </c>
       <c r="R19">
-        <v>3.063859740041451</v>
+        <v>25.891668260344</v>
       </c>
       <c r="S19">
-        <v>0.0007122220596896341</v>
+        <v>0.0009397429448221004</v>
       </c>
       <c r="T19">
-        <v>0.0007122220596896341</v>
+        <v>0.0008079920810816456</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.142017893942207</v>
+        <v>0.1477046666666667</v>
       </c>
       <c r="H20">
-        <v>0.142017893942207</v>
+        <v>0.443114</v>
       </c>
       <c r="I20">
-        <v>0.01624953741802763</v>
+        <v>0.01633672453749746</v>
       </c>
       <c r="J20">
-        <v>0.01624953741802763</v>
+        <v>0.02062724679644213</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N20">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O20">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P20">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q20">
-        <v>0.2597927522950996</v>
+        <v>0.2982225164146667</v>
       </c>
       <c r="R20">
-        <v>0.2597927522950996</v>
+        <v>1.789335098488</v>
       </c>
       <c r="S20">
-        <v>6.039118785821162E-05</v>
+        <v>6.49442522520685E-05</v>
       </c>
       <c r="T20">
-        <v>6.039118785821162E-05</v>
+        <v>5.583914390692652E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.142017893942207</v>
+        <v>0.1477046666666667</v>
       </c>
       <c r="H21">
-        <v>0.142017893942207</v>
+        <v>0.443114</v>
       </c>
       <c r="I21">
-        <v>0.01624953741802763</v>
+        <v>0.01633672453749746</v>
       </c>
       <c r="J21">
-        <v>0.01624953741802763</v>
+        <v>0.02062724679644213</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N21">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P21">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q21">
-        <v>18.67699631649158</v>
+        <v>20.63357633081111</v>
       </c>
       <c r="R21">
-        <v>18.67699631649158</v>
+        <v>185.7021869773</v>
       </c>
       <c r="S21">
-        <v>0.004341637644668216</v>
+        <v>0.004493397085507939</v>
       </c>
       <c r="T21">
-        <v>0.004341637644668216</v>
+        <v>0.005795142090052716</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.142017893942207</v>
+        <v>0.1477046666666667</v>
       </c>
       <c r="H22">
-        <v>0.142017893942207</v>
+        <v>0.443114</v>
       </c>
       <c r="I22">
-        <v>0.01624953741802763</v>
+        <v>0.01633672453749746</v>
       </c>
       <c r="J22">
-        <v>0.01624953741802763</v>
+        <v>0.02062724679644213</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N22">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O22">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P22">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q22">
-        <v>26.16346790470845</v>
+        <v>27.52548154255045</v>
       </c>
       <c r="R22">
-        <v>26.16346790470845</v>
+        <v>247.729333882954</v>
       </c>
       <c r="S22">
-        <v>0.006081936048241876</v>
+        <v>0.005994255021889206</v>
       </c>
       <c r="T22">
-        <v>0.006081936048241876</v>
+        <v>0.007730801198918129</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.142017893942207</v>
+        <v>0.1477046666666667</v>
       </c>
       <c r="H23">
-        <v>0.142017893942207</v>
+        <v>0.443114</v>
       </c>
       <c r="I23">
-        <v>0.01624953741802763</v>
+        <v>0.01633672453749746</v>
       </c>
       <c r="J23">
-        <v>0.01624953741802763</v>
+        <v>0.02062724679644213</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N23">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O23">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P23">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q23">
-        <v>19.84334931510296</v>
+        <v>21.21115809913022</v>
       </c>
       <c r="R23">
-        <v>19.84334931510296</v>
+        <v>190.900422892172</v>
       </c>
       <c r="S23">
-        <v>0.004612767006152935</v>
+        <v>0.004619177715719494</v>
       </c>
       <c r="T23">
-        <v>0.004612767006152935</v>
+        <v>0.005957361589104608</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.142017893942207</v>
+        <v>0.1477046666666667</v>
       </c>
       <c r="H24">
-        <v>0.142017893942207</v>
+        <v>0.443114</v>
       </c>
       <c r="I24">
-        <v>0.01624953741802763</v>
+        <v>0.01633672453749746</v>
       </c>
       <c r="J24">
-        <v>0.01624953741802763</v>
+        <v>0.02062724679644213</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N24">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O24">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P24">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q24">
-        <v>0.7042294720043597</v>
+        <v>0.9237029387382225</v>
       </c>
       <c r="R24">
-        <v>0.7042294720043597</v>
+        <v>8.313326448644002</v>
       </c>
       <c r="S24">
-        <v>0.0001637045451167757</v>
+        <v>0.0002011558261280965</v>
       </c>
       <c r="T24">
-        <v>0.0001637045451167757</v>
+        <v>0.0002594310212231072</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.142017893942207</v>
+        <v>0.1477046666666667</v>
       </c>
       <c r="H25">
-        <v>0.142017893942207</v>
+        <v>0.443114</v>
       </c>
       <c r="I25">
-        <v>0.01624953741802763</v>
+        <v>0.01633672453749746</v>
       </c>
       <c r="J25">
-        <v>0.01624953741802763</v>
+        <v>0.02062724679644213</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N25">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O25">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P25">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q25">
-        <v>4.254946401308428</v>
+        <v>4.425722857497667</v>
       </c>
       <c r="R25">
-        <v>4.254946401308428</v>
+        <v>26.554337144986</v>
       </c>
       <c r="S25">
-        <v>0.0009891009859896147</v>
+        <v>0.0009637946360006579</v>
       </c>
       <c r="T25">
-        <v>0.0009891009859896147</v>
+        <v>0.000828671753236646</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.53131495580557</v>
+        <v>2.756382333333333</v>
       </c>
       <c r="H26">
-        <v>2.53131495580557</v>
+        <v>8.269147</v>
       </c>
       <c r="I26">
-        <v>0.2896303835340226</v>
+        <v>0.3048668665378966</v>
       </c>
       <c r="J26">
-        <v>0.2896303835340226</v>
+        <v>0.3849342064684462</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N26">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O26">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P26">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q26">
-        <v>4.630524091295772</v>
+        <v>5.565262724587333</v>
       </c>
       <c r="R26">
-        <v>4.630524091295772</v>
+        <v>33.391576347524</v>
       </c>
       <c r="S26">
-        <v>0.001076407435576841</v>
+        <v>0.00121195351236349</v>
       </c>
       <c r="T26">
-        <v>0.001076407435576841</v>
+        <v>0.001042039044851956</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.53131495580557</v>
+        <v>2.756382333333333</v>
       </c>
       <c r="H27">
-        <v>2.53131495580557</v>
+        <v>8.269147</v>
       </c>
       <c r="I27">
-        <v>0.2896303835340226</v>
+        <v>0.3048668665378966</v>
       </c>
       <c r="J27">
-        <v>0.2896303835340226</v>
+        <v>0.3849342064684462</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N27">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P27">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q27">
-        <v>332.8972060710871</v>
+        <v>385.0523247182388</v>
       </c>
       <c r="R27">
-        <v>332.8972060710871</v>
+        <v>3465.47092246415</v>
       </c>
       <c r="S27">
-        <v>0.07738498295932647</v>
+        <v>0.08385327710123515</v>
       </c>
       <c r="T27">
-        <v>0.07738498295932647</v>
+        <v>0.1081457183219965</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.53131495580557</v>
+        <v>2.756382333333333</v>
       </c>
       <c r="H28">
-        <v>2.53131495580557</v>
+        <v>8.269147</v>
       </c>
       <c r="I28">
-        <v>0.2896303835340226</v>
+        <v>0.3048668665378966</v>
       </c>
       <c r="J28">
-        <v>0.2896303835340226</v>
+        <v>0.3849342064684462</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N28">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O28">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P28">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q28">
-        <v>466.3354438270887</v>
+        <v>513.6652263777186</v>
       </c>
       <c r="R28">
-        <v>466.3354438270887</v>
+        <v>4622.987037399467</v>
       </c>
       <c r="S28">
-        <v>0.1084039148294417</v>
+        <v>0.1118614531057246</v>
       </c>
       <c r="T28">
-        <v>0.1084039148294417</v>
+        <v>0.1442679119631297</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.53131495580557</v>
+        <v>2.756382333333333</v>
       </c>
       <c r="H29">
-        <v>2.53131495580557</v>
+        <v>8.269147</v>
       </c>
       <c r="I29">
-        <v>0.2896303835340226</v>
+        <v>0.3048668665378966</v>
       </c>
       <c r="J29">
-        <v>0.2896303835340226</v>
+        <v>0.3849342064684462</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N29">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O29">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P29">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q29">
-        <v>353.6861834821667</v>
+        <v>395.8308344172117</v>
       </c>
       <c r="R29">
-        <v>353.6861834821667</v>
+        <v>3562.477509754906</v>
       </c>
       <c r="S29">
-        <v>0.08221756981604732</v>
+        <v>0.08620052526078774</v>
       </c>
       <c r="T29">
-        <v>0.08221756981604732</v>
+        <v>0.1111729683838913</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.53131495580557</v>
+        <v>2.756382333333333</v>
       </c>
       <c r="H30">
-        <v>2.53131495580557</v>
+        <v>8.269147</v>
       </c>
       <c r="I30">
-        <v>0.2896303835340226</v>
+        <v>0.3048668665378966</v>
       </c>
       <c r="J30">
-        <v>0.2896303835340226</v>
+        <v>0.3849342064684462</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N30">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O30">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P30">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q30">
-        <v>12.55212667446766</v>
+        <v>17.23763046249578</v>
       </c>
       <c r="R30">
-        <v>12.55212667446766</v>
+        <v>155.138674162462</v>
       </c>
       <c r="S30">
-        <v>0.002917855996062537</v>
+        <v>0.003753858140703456</v>
       </c>
       <c r="T30">
-        <v>0.002917855996062537</v>
+        <v>0.004841357417851823</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.53131495580557</v>
+        <v>2.756382333333333</v>
       </c>
       <c r="H31">
-        <v>2.53131495580557</v>
+        <v>8.269147</v>
       </c>
       <c r="I31">
-        <v>0.2896303835340226</v>
+        <v>0.3048668665378966</v>
       </c>
       <c r="J31">
-        <v>0.2896303835340226</v>
+        <v>0.3849342064684462</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N31">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O31">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P31">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q31">
-        <v>75.83980555412349</v>
+        <v>82.59037829973383</v>
       </c>
       <c r="R31">
-        <v>75.83980555412349</v>
+        <v>495.542269798403</v>
       </c>
       <c r="S31">
-        <v>0.01762965249756779</v>
+        <v>0.01798579941708213</v>
       </c>
       <c r="T31">
-        <v>0.01762965249756779</v>
+        <v>0.01546421133672497</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.542827312960577</v>
+        <v>0.545685</v>
       </c>
       <c r="H32">
-        <v>0.542827312960577</v>
+        <v>1.09137</v>
       </c>
       <c r="I32">
-        <v>0.06210972778592109</v>
+        <v>0.06035493481978205</v>
       </c>
       <c r="J32">
-        <v>0.06210972778592109</v>
+        <v>0.05080398799458615</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N32">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O32">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P32">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q32">
-        <v>0.9929917825169949</v>
+        <v>1.10176311651</v>
       </c>
       <c r="R32">
-        <v>0.9929917825169949</v>
+        <v>4.40705246604</v>
       </c>
       <c r="S32">
-        <v>0.0002308299702353761</v>
+        <v>0.0002399321909723231</v>
       </c>
       <c r="T32">
-        <v>0.0002308299702353761</v>
+        <v>0.0001375293186080837</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.542827312960577</v>
+        <v>0.545685</v>
       </c>
       <c r="H33">
-        <v>0.542827312960577</v>
+        <v>1.09137</v>
       </c>
       <c r="I33">
-        <v>0.06210972778592109</v>
+        <v>0.06035493481978205</v>
       </c>
       <c r="J33">
-        <v>0.06210972778592109</v>
+        <v>0.05080398799458615</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N33">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P33">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q33">
-        <v>71.38807260993075</v>
+        <v>76.22936603274998</v>
       </c>
       <c r="R33">
-        <v>71.38807260993075</v>
+        <v>457.3761961964999</v>
       </c>
       <c r="S33">
-        <v>0.01659480669008371</v>
+        <v>0.01660055463338147</v>
       </c>
       <c r="T33">
-        <v>0.01659480669008371</v>
+        <v>0.01427317625446461</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.542827312960577</v>
+        <v>0.545685</v>
       </c>
       <c r="H34">
-        <v>0.542827312960577</v>
+        <v>1.09137</v>
       </c>
       <c r="I34">
-        <v>0.06210972778592109</v>
+        <v>0.06035493481978205</v>
       </c>
       <c r="J34">
-        <v>0.06210972778592109</v>
+        <v>0.05080398799458615</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N34">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O34">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P34">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q34">
-        <v>100.003207949434</v>
+        <v>101.691048323095</v>
       </c>
       <c r="R34">
-        <v>100.003207949434</v>
+        <v>610.14628993857</v>
       </c>
       <c r="S34">
-        <v>0.02324665512930858</v>
+        <v>0.02214537377482732</v>
       </c>
       <c r="T34">
-        <v>0.02324665512930858</v>
+        <v>0.01904061822570101</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.542827312960577</v>
+        <v>0.545685</v>
       </c>
       <c r="H35">
-        <v>0.542827312960577</v>
+        <v>1.09137</v>
       </c>
       <c r="I35">
-        <v>0.06210972778592109</v>
+        <v>0.06035493481978205</v>
       </c>
       <c r="J35">
-        <v>0.06210972778592109</v>
+        <v>0.05080398799458615</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N35">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O35">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P35">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q35">
-        <v>75.84616057775662</v>
+        <v>78.36320319821</v>
       </c>
       <c r="R35">
-        <v>75.84616057775662</v>
+        <v>470.17921918926</v>
       </c>
       <c r="S35">
-        <v>0.01763112978060468</v>
+        <v>0.01706524274883478</v>
       </c>
       <c r="T35">
-        <v>0.01763112978060468</v>
+        <v>0.01467271563864174</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.542827312960577</v>
+        <v>0.545685</v>
       </c>
       <c r="H36">
-        <v>0.542827312960577</v>
+        <v>1.09137</v>
       </c>
       <c r="I36">
-        <v>0.06210972778592109</v>
+        <v>0.06035493481978205</v>
       </c>
       <c r="J36">
-        <v>0.06210972778592109</v>
+        <v>0.05080398799458615</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N36">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O36">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P36">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q36">
-        <v>2.691738212589859</v>
+        <v>3.412558651670001</v>
       </c>
       <c r="R36">
-        <v>2.691738212589859</v>
+        <v>20.47535191002</v>
       </c>
       <c r="S36">
-        <v>0.0006257190265146101</v>
+        <v>0.0007431567292889212</v>
       </c>
       <c r="T36">
-        <v>0.0006257190265146101</v>
+        <v>0.0006389670234573099</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.542827312960577</v>
+        <v>0.545685</v>
       </c>
       <c r="H37">
-        <v>0.542827312960577</v>
+        <v>1.09137</v>
       </c>
       <c r="I37">
-        <v>0.06210972778592109</v>
+        <v>0.06035493481978205</v>
       </c>
       <c r="J37">
-        <v>0.06210972778592109</v>
+        <v>0.05080398799458615</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N37">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O37">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P37">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q37">
-        <v>16.26345144051667</v>
+        <v>16.3505367297825</v>
       </c>
       <c r="R37">
-        <v>16.26345144051667</v>
+        <v>65.40214691912999</v>
       </c>
       <c r="S37">
-        <v>0.003780587189174143</v>
+        <v>0.003560674742477234</v>
       </c>
       <c r="T37">
-        <v>0.003780587189174143</v>
+        <v>0.002040981533713397</v>
       </c>
     </row>
   </sheetData>
